--- a/result.xlsx
+++ b/result.xlsx
@@ -7,13 +7,20 @@
   <sheets>
     <sheet name="资金表" sheetId="1" r:id="rId1"/>
     <sheet name="项目表" sheetId="2" r:id="rId2"/>
-    <sheet name="考试考务大表" sheetId="3" r:id="rId3"/>
+    <sheet name="考试考务" sheetId="3" r:id="rId3"/>
+    <sheet name="考试考务大表" sheetId="4" r:id="rId4"/>
+    <sheet name="综合项目" sheetId="5" r:id="rId5"/>
+    <sheet name="财政管理" sheetId="6" r:id="rId6"/>
+    <sheet name="书籍销售" sheetId="7" r:id="rId7"/>
+    <sheet name="上年项目" sheetId="8" r:id="rId8"/>
+    <sheet name="考试费征缴" sheetId="9" r:id="rId9"/>
+    <sheet name="其他项目" sheetId="10" r:id="rId10"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t>收支情况\月份</t>
   </si>
@@ -136,24 +143,27 @@
     <t>当前结余</t>
   </si>
   <si>
+    <t>考试考务经费项目</t>
+  </si>
+  <si>
+    <t>收入</t>
+  </si>
+  <si>
+    <t>结余</t>
+  </si>
+  <si>
+    <t>金额</t>
+  </si>
+  <si>
+    <t>摘要</t>
+  </si>
+  <si>
     <t>2020年度考试考务经费项目收支统计表</t>
   </si>
   <si>
     <t>发生月份</t>
   </si>
   <si>
-    <t>收入</t>
-  </si>
-  <si>
-    <t>结余</t>
-  </si>
-  <si>
-    <t>金额</t>
-  </si>
-  <si>
-    <t>摘要</t>
-  </si>
-  <si>
     <t>人员经费</t>
   </si>
   <si>
@@ -179,21 +189,33 @@
   </si>
   <si>
     <t>房地产估价师</t>
+  </si>
+  <si>
+    <t>综合项目</t>
+  </si>
+  <si>
+    <t>财政管理事务经费项目</t>
+  </si>
+  <si>
+    <t>考试用书销售项目</t>
+  </si>
+  <si>
+    <t>上年结转资金项目</t>
+  </si>
+  <si>
+    <t>考试费征缴项目</t>
+  </si>
+  <si>
+    <t>其他项目</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="1"/>
@@ -235,11 +257,11 @@
   </borders>
   <cellXfs count="4">
     <xf applyFont="1" fontId="0"/>
-    <xf applyFont="1" fontId="1" applyAlignment="1">
+    <xf applyFont="1" fontId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf applyFont="1" fontId="0" applyBorder="1" borderId="1"/>
-    <xf applyFont="1" fontId="1" applyBorder="1" borderId="1" applyAlignment="1">
+    <xf applyFont="1" fontId="0" applyBorder="1" borderId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -917,29 +939,16 @@
       <c r="O28" s="2"/>
       <c r="P28" s="2"/>
     </row>
-    <row r="29" spans="1:16">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="3" t="s">
+    <row r="29" spans="4:13">
+      <c r="D29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="3" t="s">
+      <c r="H29" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="I29" s="2"/>
-      <c r="J29" s="2"/>
-      <c r="K29" s="2"/>
-      <c r="L29" s="2"/>
-      <c r="M29" s="3" t="s">
+      <c r="M29" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N29" s="2"/>
-      <c r="O29" s="2"/>
-      <c r="P29" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="29">
@@ -977,17 +986,271 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="4" customWidth="1"/>
-    <col min="2" max="2" width="4" customWidth="1"/>
-    <col min="3" max="3" width="4" customWidth="1"/>
+    <col min="1" max="1" width="5" customWidth="1"/>
+    <col min="2" max="2" width="6" customWidth="1"/>
+    <col min="3" max="3" width="6" customWidth="1"/>
+    <col min="4" max="4" width="12" customWidth="1"/>
+    <col min="5" max="5" width="12" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="0"/>
+      <c r="C1" s="0"/>
+      <c r="D1" s="0"/>
+      <c r="E1" s="0"/>
+      <c r="F1" s="0"/>
+      <c r="G1" s="0"/>
+      <c r="H1" s="0"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="2"/>
+      <c r="B4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="2"/>
+      <c r="H4" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H5" s="2"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="3" t="n">
+        <v>11</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="3" t="n">
+        <v>12</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:H3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G20"/>
+  <sheetViews>
+    <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="5" customWidth="1"/>
+    <col min="2" max="2" width="5" customWidth="1"/>
+    <col min="3" max="3" width="5" customWidth="1"/>
     <col min="4" max="4" width="12" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
     <col min="6" max="6" width="12" customWidth="1"/>
@@ -1200,7 +1463,9 @@
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
+      <c r="D18" s="3" t="n">
+        <v>27005.112</v>
+      </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
@@ -1211,7 +1476,9 @@
       </c>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
+      <c r="D19" s="3" t="n">
+        <v>123</v>
+      </c>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
@@ -1222,22 +1489,15 @@
       </c>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
+      <c r="D20" s="3" t="n">
+        <v>27306.212</v>
+      </c>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
     </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-    </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="12">
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="A17:C17"/>
@@ -1247,12 +1507,347 @@
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="D3:F3"/>
     <mergeCell ref="G3:G4"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="D20:F20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H18"/>
+  <sheetViews>
+    <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="5" customWidth="1"/>
+    <col min="2" max="2" width="6" customWidth="1"/>
+    <col min="3" max="3" width="6" customWidth="1"/>
+    <col min="4" max="4" width="12" customWidth="1"/>
+    <col min="5" max="5" width="12" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="0"/>
+      <c r="C1" s="0"/>
+      <c r="D1" s="0"/>
+      <c r="E1" s="0"/>
+      <c r="F1" s="0"/>
+      <c r="G1" s="0"/>
+      <c r="H1" s="0"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="2"/>
+      <c r="B4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="2"/>
+      <c r="H4" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H5" s="2"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="2"/>
+      <c r="H6" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" s="2"/>
+      <c r="H7" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" s="2"/>
+      <c r="H8" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" s="2"/>
+      <c r="H9" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="F10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" s="2"/>
+      <c r="H10" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" s="2"/>
+      <c r="F11" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" s="2"/>
+      <c r="H11" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="F12" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" s="2"/>
+      <c r="H12" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="F13" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" s="2"/>
+      <c r="H13" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" s="2"/>
+      <c r="F14" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" s="2"/>
+      <c r="H14" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" s="2"/>
+      <c r="F15" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" s="2"/>
+      <c r="H15" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="3" t="n">
+        <v>11</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" s="2"/>
+      <c r="F16" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" s="2"/>
+      <c r="H16" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="3" t="n">
+        <v>12</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" s="2"/>
+      <c r="F17" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" s="2"/>
+      <c r="H17" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" s="2"/>
+      <c r="F18" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" s="2"/>
+      <c r="H18" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:H3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O17"/>
   <sheetViews>
@@ -1269,7 +1864,7 @@
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" s="3" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -1288,10 +1883,10 @@
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>41</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>42</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="3" t="s">
@@ -1307,7 +1902,7 @@
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O2" s="3" t="s">
         <v>30</v>
@@ -1316,19 +1911,19 @@
     <row r="3" spans="1:15">
       <c r="A3" s="2"/>
       <c r="B3" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>45</v>
-      </c>
       <c r="D3" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
@@ -1349,22 +1944,22 @@
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L4" s="3" t="s">
         <v>18</v>
@@ -1377,10 +1972,16 @@
       <c r="A5" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="B5" s="2"/>
+      <c r="B5" s="3" t="n">
+        <v>0</v>
+      </c>
       <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
+      <c r="D5" s="3" t="n">
+        <v>123</v>
+      </c>
+      <c r="E5" s="3" t="n">
+        <v>0</v>
+      </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
@@ -1605,19 +2206,43 @@
       <c r="A17" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="2"/>
+      <c r="B17" s="3" t="n">
+        <v>0</v>
+      </c>
       <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
+      <c r="D17" s="3" t="n">
+        <v>123</v>
+      </c>
+      <c r="E17" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" s="3" t="n">
+        <v>0</v>
+      </c>
       <c r="O17" s="2"/>
     </row>
   </sheetData>
@@ -1638,4 +2263,1274 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H18"/>
+  <sheetViews>
+    <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="5" customWidth="1"/>
+    <col min="2" max="2" width="6" customWidth="1"/>
+    <col min="3" max="3" width="6" customWidth="1"/>
+    <col min="4" max="4" width="12" customWidth="1"/>
+    <col min="5" max="5" width="12" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="0"/>
+      <c r="C1" s="0"/>
+      <c r="D1" s="0"/>
+      <c r="E1" s="0"/>
+      <c r="F1" s="0"/>
+      <c r="G1" s="0"/>
+      <c r="H1" s="0"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="2"/>
+      <c r="B4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="2"/>
+      <c r="H4" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H5" s="2"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="3" t="n">
+        <v>11</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="3" t="n">
+        <v>12</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:H3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H18"/>
+  <sheetViews>
+    <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="5" customWidth="1"/>
+    <col min="2" max="2" width="6" customWidth="1"/>
+    <col min="3" max="3" width="6" customWidth="1"/>
+    <col min="4" max="4" width="12" customWidth="1"/>
+    <col min="5" max="5" width="12" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="0"/>
+      <c r="C1" s="0"/>
+      <c r="D1" s="0"/>
+      <c r="E1" s="0"/>
+      <c r="F1" s="0"/>
+      <c r="G1" s="0"/>
+      <c r="H1" s="0"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="2"/>
+      <c r="B4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="2"/>
+      <c r="H4" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H5" s="2"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="3" t="n">
+        <v>11</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="3" t="n">
+        <v>12</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:H3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H18"/>
+  <sheetViews>
+    <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="5" customWidth="1"/>
+    <col min="2" max="2" width="6" customWidth="1"/>
+    <col min="3" max="3" width="6" customWidth="1"/>
+    <col min="4" max="4" width="12" customWidth="1"/>
+    <col min="5" max="5" width="12" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="0"/>
+      <c r="C1" s="0"/>
+      <c r="D1" s="0"/>
+      <c r="E1" s="0"/>
+      <c r="F1" s="0"/>
+      <c r="G1" s="0"/>
+      <c r="H1" s="0"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="2"/>
+      <c r="B4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="2"/>
+      <c r="H4" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H5" s="2"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="3" t="n">
+        <v>11</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="3" t="n">
+        <v>12</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:H3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H18"/>
+  <sheetViews>
+    <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="5" customWidth="1"/>
+    <col min="2" max="2" width="6" customWidth="1"/>
+    <col min="3" max="3" width="6" customWidth="1"/>
+    <col min="4" max="4" width="12" customWidth="1"/>
+    <col min="5" max="5" width="12" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="0"/>
+      <c r="C1" s="0"/>
+      <c r="D1" s="0"/>
+      <c r="E1" s="0"/>
+      <c r="F1" s="0"/>
+      <c r="G1" s="0"/>
+      <c r="H1" s="0"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="2"/>
+      <c r="B4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="2"/>
+      <c r="H4" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H5" s="2"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="3" t="n">
+        <v>11</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="3" t="n">
+        <v>12</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:H3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H18"/>
+  <sheetViews>
+    <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="5" customWidth="1"/>
+    <col min="2" max="2" width="6" customWidth="1"/>
+    <col min="3" max="3" width="6" customWidth="1"/>
+    <col min="4" max="4" width="12" customWidth="1"/>
+    <col min="5" max="5" width="12" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="0"/>
+      <c r="C1" s="0"/>
+      <c r="D1" s="0"/>
+      <c r="E1" s="0"/>
+      <c r="F1" s="0"/>
+      <c r="G1" s="0"/>
+      <c r="H1" s="0"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="2"/>
+      <c r="B4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="2"/>
+      <c r="H4" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H5" s="2"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="3" t="n">
+        <v>11</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="3" t="n">
+        <v>12</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:H3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>